--- a/REyeker-DataAnalyses-Python/results/preprocessed.xlsx
+++ b/REyeker-DataAnalyses-Python/results/preprocessed.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\REyeker\REyeker-DataAnalyses-Python\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70393DF6-E2C8-4CC6-B363-5E49F4891831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1516,6 +1510,9 @@
     <t>231-65 208-51 208-33 272-69 396-91 216-145 269-127 341-111 225-62 224-44 328-82 455-89 327-114 422-89 391-108 489-136 297-174 422-164 431-254 586-236 503-238 263-199 229-224 143-39 295-230 468-261 624-242 312-260 309-275 310-295 301-286 253-333 315-358 339-349 372-337 472-340 700-323 683-325 653-344 718-340 679-328 319-355 115-361 39-371 497-336 794-321 422-275 607-258 152-319 359-2 122-22 313-30 141-85 358-75 470-89 232-111 318-113 330-134 477-138 287-160 117-256 314-253 217-277 377-349 178-220 386-250 521-260 331-266 321-285 302-322 494-342 578-350 653-334 758-340 658-337 498-317 655-339 865-333 700-338 562-335 800-324 558-187 442-115</t>
   </si>
   <si>
+    <t>244-51 541-84 236-98 458-112 1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
+  </si>
+  <si>
     <t>41-18 303-12 177-79 446-98 234-142 456-152 210-116 465-144 201-267 517-251 294-326 504-333 753-332 530-333 351-324 301-283 300-327 609-330 804-328 275-124 490-110 261-124 501-158 158-120 564-187</t>
   </si>
   <si>
@@ -2027,16 +2024,13 @@
   </si>
   <si>
     <t>188-80 267-150 274-470 268-414 270-262 270-302 380-419 706-393 349-386 604-385 304-431 308-477 290-435 262-300 547-305 327-305 308-541 296-397 287-298 252-441 321-466 372-381 302-165</t>
-  </si>
-  <si>
-    <t>244-51 541-84 236-98 458-112 1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2095,23 +2089,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2153,7 +2139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2185,27 +2171,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2237,24 +2205,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2430,16 +2380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="I479" sqref="I479"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>638</v>
       </c>
@@ -2488,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>712</v>
       </c>
@@ -2511,7 +2459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>750</v>
       </c>
@@ -2534,7 +2482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>784</v>
       </c>
@@ -2557,7 +2505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>829</v>
       </c>
@@ -2580,7 +2528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>841</v>
       </c>
@@ -2603,7 +2551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>857</v>
       </c>
@@ -2626,7 +2574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>938</v>
       </c>
@@ -2649,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>643</v>
       </c>
@@ -2672,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>694</v>
       </c>
@@ -2695,7 +2643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>704</v>
       </c>
@@ -2718,7 +2666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>715</v>
       </c>
@@ -2741,7 +2689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>733</v>
       </c>
@@ -2764,7 +2712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>739</v>
       </c>
@@ -2787,7 +2735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>748</v>
       </c>
@@ -2810,7 +2758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>756</v>
       </c>
@@ -2833,7 +2781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>757</v>
       </c>
@@ -2856,7 +2804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>772</v>
       </c>
@@ -2879,7 +2827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>780</v>
       </c>
@@ -2902,7 +2850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>785</v>
       </c>
@@ -2925,7 +2873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>789</v>
       </c>
@@ -2948,7 +2896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>801</v>
       </c>
@@ -2971,7 +2919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>813</v>
       </c>
@@ -2994,7 +2942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>815</v>
       </c>
@@ -3017,7 +2965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>831</v>
       </c>
@@ -3040,7 +2988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>832</v>
       </c>
@@ -3063,7 +3011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>833</v>
       </c>
@@ -3086,7 +3034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>854</v>
       </c>
@@ -3109,7 +3057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>855</v>
       </c>
@@ -3132,7 +3080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>875</v>
       </c>
@@ -3155,7 +3103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>876</v>
       </c>
@@ -3178,7 +3126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>900</v>
       </c>
@@ -3201,7 +3149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>939</v>
       </c>
@@ -3224,7 +3172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>945</v>
       </c>
@@ -3247,7 +3195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>631</v>
       </c>
@@ -3270,7 +3218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>699</v>
       </c>
@@ -3293,7 +3241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>700</v>
       </c>
@@ -3316,7 +3264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>716</v>
       </c>
@@ -3339,7 +3287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>727</v>
       </c>
@@ -3362,7 +3310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>734</v>
       </c>
@@ -3385,7 +3333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>737</v>
       </c>
@@ -3408,7 +3356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>761</v>
       </c>
@@ -3431,7 +3379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>767</v>
       </c>
@@ -3454,7 +3402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>773</v>
       </c>
@@ -3477,7 +3425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>774</v>
       </c>
@@ -3500,7 +3448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>794</v>
       </c>
@@ -3523,7 +3471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>799</v>
       </c>
@@ -3546,7 +3494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>805</v>
       </c>
@@ -3569,7 +3517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>817</v>
       </c>
@@ -3592,7 +3540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>825</v>
       </c>
@@ -3615,7 +3563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>828</v>
       </c>
@@ -3638,7 +3586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>837</v>
       </c>
@@ -3661,7 +3609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>842</v>
       </c>
@@ -3684,7 +3632,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>852</v>
       </c>
@@ -3707,7 +3655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>859</v>
       </c>
@@ -3730,7 +3678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>860</v>
       </c>
@@ -3753,7 +3701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>883</v>
       </c>
@@ -3776,7 +3724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>886</v>
       </c>
@@ -3799,7 +3747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>894</v>
       </c>
@@ -3822,7 +3770,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>936</v>
       </c>
@@ -3845,7 +3793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>946</v>
       </c>
@@ -3868,7 +3816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>958</v>
       </c>
@@ -3891,7 +3839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>653</v>
       </c>
@@ -3914,7 +3862,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>707</v>
       </c>
@@ -3937,7 +3885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>717</v>
       </c>
@@ -3960,7 +3908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>730</v>
       </c>
@@ -3983,7 +3931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>735</v>
       </c>
@@ -4006,7 +3954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>740</v>
       </c>
@@ -4029,7 +3977,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>744</v>
       </c>
@@ -4052,7 +4000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>759</v>
       </c>
@@ -4075,7 +4023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>762</v>
       </c>
@@ -4098,7 +4046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>768</v>
       </c>
@@ -4121,7 +4069,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>782</v>
       </c>
@@ -4144,7 +4092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>787</v>
       </c>
@@ -4167,7 +4115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>793</v>
       </c>
@@ -4190,7 +4138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>803</v>
       </c>
@@ -4213,7 +4161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>804</v>
       </c>
@@ -4236,7 +4184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>821</v>
       </c>
@@ -4259,7 +4207,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>830</v>
       </c>
@@ -4282,7 +4230,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>834</v>
       </c>
@@ -4305,7 +4253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>851</v>
       </c>
@@ -4328,7 +4276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>853</v>
       </c>
@@ -4351,7 +4299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>867</v>
       </c>
@@ -4374,7 +4322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>880</v>
       </c>
@@ -4397,7 +4345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>888</v>
       </c>
@@ -4420,7 +4368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>898</v>
       </c>
@@ -4443,7 +4391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>941</v>
       </c>
@@ -4466,7 +4414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>942</v>
       </c>
@@ -4489,7 +4437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>653</v>
       </c>
@@ -4512,7 +4460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>703</v>
       </c>
@@ -4535,7 +4483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>730</v>
       </c>
@@ -4558,7 +4506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>735</v>
       </c>
@@ -4581,7 +4529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>744</v>
       </c>
@@ -4604,7 +4552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>759</v>
       </c>
@@ -4627,7 +4575,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>762</v>
       </c>
@@ -4650,7 +4598,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>803</v>
       </c>
@@ -4673,7 +4621,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>830</v>
       </c>
@@ -4696,7 +4644,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>834</v>
       </c>
@@ -4719,7 +4667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>853</v>
       </c>
@@ -4742,7 +4690,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>880</v>
       </c>
@@ -4765,7 +4713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>888</v>
       </c>
@@ -4788,7 +4736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>941</v>
       </c>
@@ -4811,7 +4759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>942</v>
       </c>
@@ -4834,7 +4782,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>694</v>
       </c>
@@ -4857,7 +4805,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>704</v>
       </c>
@@ -4880,7 +4828,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>739</v>
       </c>
@@ -4903,7 +4851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>757</v>
       </c>
@@ -4926,7 +4874,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>785</v>
       </c>
@@ -4949,7 +4897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>813</v>
       </c>
@@ -4972,7 +4920,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>832</v>
       </c>
@@ -4995,7 +4943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>854</v>
       </c>
@@ -5018,7 +4966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>855</v>
       </c>
@@ -5041,7 +4989,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>875</v>
       </c>
@@ -5064,7 +5012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>876</v>
       </c>
@@ -5087,7 +5035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>939</v>
       </c>
@@ -5110,7 +5058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>631</v>
       </c>
@@ -5133,7 +5081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>699</v>
       </c>
@@ -5156,7 +5104,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>700</v>
       </c>
@@ -5179,7 +5127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>727</v>
       </c>
@@ -5202,7 +5150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>760</v>
       </c>
@@ -5225,7 +5173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>761</v>
       </c>
@@ -5248,7 +5196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>799</v>
       </c>
@@ -5271,7 +5219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>828</v>
       </c>
@@ -5294,7 +5242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>837</v>
       </c>
@@ -5317,7 +5265,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>842</v>
       </c>
@@ -5340,7 +5288,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>852</v>
       </c>
@@ -5363,7 +5311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>859</v>
       </c>
@@ -5386,7 +5334,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>860</v>
       </c>
@@ -5409,7 +5357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>886</v>
       </c>
@@ -5432,7 +5380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>936</v>
       </c>
@@ -5455,7 +5403,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>946</v>
       </c>
@@ -5478,7 +5426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>958</v>
       </c>
@@ -5501,7 +5449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>638</v>
       </c>
@@ -5524,7 +5472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>696</v>
       </c>
@@ -5547,7 +5495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>706</v>
       </c>
@@ -5570,7 +5518,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>708</v>
       </c>
@@ -5593,7 +5541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>709</v>
       </c>
@@ -5616,7 +5564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>712</v>
       </c>
@@ -5639,7 +5587,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>732</v>
       </c>
@@ -5662,7 +5610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>736</v>
       </c>
@@ -5685,7 +5633,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>749</v>
       </c>
@@ -5708,7 +5656,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>750</v>
       </c>
@@ -5731,7 +5679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>764</v>
       </c>
@@ -5754,7 +5702,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>769</v>
       </c>
@@ -5777,7 +5725,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>784</v>
       </c>
@@ -5800,7 +5748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>788</v>
       </c>
@@ -5823,7 +5771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>792</v>
       </c>
@@ -5846,7 +5794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>806</v>
       </c>
@@ -5869,7 +5817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>829</v>
       </c>
@@ -5892,7 +5840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>841</v>
       </c>
@@ -5915,7 +5863,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>857</v>
       </c>
@@ -5938,7 +5886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>858</v>
       </c>
@@ -5961,7 +5909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>868</v>
       </c>
@@ -5984,7 +5932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>877</v>
       </c>
@@ -6007,7 +5955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>889</v>
       </c>
@@ -6030,7 +5978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>895</v>
       </c>
@@ -6053,7 +6001,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>938</v>
       </c>
@@ -6076,7 +6024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>948</v>
       </c>
@@ -6099,7 +6047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>949</v>
       </c>
@@ -6122,7 +6070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>653</v>
       </c>
@@ -6145,7 +6093,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>703</v>
       </c>
@@ -6168,7 +6116,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>730</v>
       </c>
@@ -6191,7 +6139,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>735</v>
       </c>
@@ -6214,7 +6162,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>744</v>
       </c>
@@ -6237,7 +6185,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>759</v>
       </c>
@@ -6260,7 +6208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>762</v>
       </c>
@@ -6283,7 +6231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>803</v>
       </c>
@@ -6306,7 +6254,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>830</v>
       </c>
@@ -6329,7 +6277,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>834</v>
       </c>
@@ -6352,7 +6300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>853</v>
       </c>
@@ -6375,7 +6323,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>888</v>
       </c>
@@ -6398,7 +6346,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>941</v>
       </c>
@@ -6421,7 +6369,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>942</v>
       </c>
@@ -6444,7 +6392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>653</v>
       </c>
@@ -6467,7 +6415,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>703</v>
       </c>
@@ -6490,7 +6438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>707</v>
       </c>
@@ -6513,7 +6461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>717</v>
       </c>
@@ -6536,7 +6484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>730</v>
       </c>
@@ -6559,7 +6507,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>735</v>
       </c>
@@ -6582,7 +6530,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>740</v>
       </c>
@@ -6605,7 +6553,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>744</v>
       </c>
@@ -6628,7 +6576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>759</v>
       </c>
@@ -6651,7 +6599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>762</v>
       </c>
@@ -6674,7 +6622,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>768</v>
       </c>
@@ -6697,7 +6645,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>782</v>
       </c>
@@ -6720,7 +6668,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>787</v>
       </c>
@@ -6743,7 +6691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>803</v>
       </c>
@@ -6766,7 +6714,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>804</v>
       </c>
@@ -6789,7 +6737,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>821</v>
       </c>
@@ -6812,7 +6760,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>830</v>
       </c>
@@ -6835,7 +6783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>834</v>
       </c>
@@ -6858,7 +6806,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>851</v>
       </c>
@@ -6881,7 +6829,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>853</v>
       </c>
@@ -6904,7 +6852,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>867</v>
       </c>
@@ -6927,7 +6875,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>880</v>
       </c>
@@ -6950,7 +6898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>888</v>
       </c>
@@ -6973,7 +6921,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>898</v>
       </c>
@@ -6996,7 +6944,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>941</v>
       </c>
@@ -7019,7 +6967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>942</v>
       </c>
@@ -7042,7 +6990,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>638</v>
       </c>
@@ -7065,7 +7013,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>696</v>
       </c>
@@ -7088,7 +7036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>706</v>
       </c>
@@ -7111,7 +7059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>708</v>
       </c>
@@ -7134,7 +7082,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>709</v>
       </c>
@@ -7157,7 +7105,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>712</v>
       </c>
@@ -7180,7 +7128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>732</v>
       </c>
@@ -7203,7 +7151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>736</v>
       </c>
@@ -7226,7 +7174,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>749</v>
       </c>
@@ -7249,7 +7197,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>750</v>
       </c>
@@ -7272,7 +7220,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>764</v>
       </c>
@@ -7295,7 +7243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>769</v>
       </c>
@@ -7318,7 +7266,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>784</v>
       </c>
@@ -7341,7 +7289,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>788</v>
       </c>
@@ -7364,7 +7312,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>791</v>
       </c>
@@ -7387,7 +7335,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>792</v>
       </c>
@@ -7410,7 +7358,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>806</v>
       </c>
@@ -7433,7 +7381,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>816</v>
       </c>
@@ -7456,7 +7404,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>829</v>
       </c>
@@ -7479,7 +7427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>841</v>
       </c>
@@ -7502,7 +7450,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>850</v>
       </c>
@@ -7525,7 +7473,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>857</v>
       </c>
@@ -7548,7 +7496,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>858</v>
       </c>
@@ -7571,7 +7519,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>868</v>
       </c>
@@ -7594,7 +7542,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>877</v>
       </c>
@@ -7617,7 +7565,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>889</v>
       </c>
@@ -7640,7 +7588,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>895</v>
       </c>
@@ -7663,7 +7611,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>938</v>
       </c>
@@ -7686,7 +7634,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>948</v>
       </c>
@@ -7709,7 +7657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>949</v>
       </c>
@@ -7732,7 +7680,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>643</v>
       </c>
@@ -7755,7 +7703,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>694</v>
       </c>
@@ -7778,7 +7726,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>704</v>
       </c>
@@ -7801,7 +7749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>715</v>
       </c>
@@ -7824,7 +7772,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>733</v>
       </c>
@@ -7847,7 +7795,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>739</v>
       </c>
@@ -7870,7 +7818,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>748</v>
       </c>
@@ -7893,7 +7841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>756</v>
       </c>
@@ -7916,7 +7864,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>757</v>
       </c>
@@ -7939,7 +7887,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>780</v>
       </c>
@@ -7962,7 +7910,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>785</v>
       </c>
@@ -7985,7 +7933,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>789</v>
       </c>
@@ -8008,7 +7956,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>801</v>
       </c>
@@ -8031,7 +7979,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>813</v>
       </c>
@@ -8054,7 +8002,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>815</v>
       </c>
@@ -8077,7 +8025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>831</v>
       </c>
@@ -8100,7 +8048,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>832</v>
       </c>
@@ -8123,7 +8071,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>833</v>
       </c>
@@ -8146,7 +8094,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>854</v>
       </c>
@@ -8169,7 +8117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>855</v>
       </c>
@@ -8192,7 +8140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>875</v>
       </c>
@@ -8215,7 +8163,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>876</v>
       </c>
@@ -8238,7 +8186,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>900</v>
       </c>
@@ -8261,7 +8209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>939</v>
       </c>
@@ -8284,7 +8232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>945</v>
       </c>
@@ -8307,7 +8255,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>638</v>
       </c>
@@ -8330,7 +8278,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>712</v>
       </c>
@@ -8353,7 +8301,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>750</v>
       </c>
@@ -8376,7 +8324,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>784</v>
       </c>
@@ -8399,7 +8347,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>792</v>
       </c>
@@ -8422,7 +8370,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>829</v>
       </c>
@@ -8445,7 +8393,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>841</v>
       </c>
@@ -8468,7 +8416,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>857</v>
       </c>
@@ -8491,7 +8439,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>938</v>
       </c>
@@ -8514,7 +8462,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>631</v>
       </c>
@@ -8537,7 +8485,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>699</v>
       </c>
@@ -8560,7 +8508,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>700</v>
       </c>
@@ -8583,7 +8531,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>727</v>
       </c>
@@ -8606,7 +8554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>761</v>
       </c>
@@ -8629,7 +8577,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>767</v>
       </c>
@@ -8652,7 +8600,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>837</v>
       </c>
@@ -8675,7 +8623,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>842</v>
       </c>
@@ -8698,7 +8646,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>859</v>
       </c>
@@ -8721,7 +8669,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>860</v>
       </c>
@@ -8744,7 +8692,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>886</v>
       </c>
@@ -8767,7 +8715,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>958</v>
       </c>
@@ -8790,7 +8738,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>694</v>
       </c>
@@ -8813,7 +8761,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>704</v>
       </c>
@@ -8836,7 +8784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>739</v>
       </c>
@@ -8859,7 +8807,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>757</v>
       </c>
@@ -8882,7 +8830,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>785</v>
       </c>
@@ -8905,7 +8853,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>813</v>
       </c>
@@ -8928,7 +8876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>815</v>
       </c>
@@ -8951,7 +8899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>831</v>
       </c>
@@ -8974,7 +8922,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>832</v>
       </c>
@@ -8997,7 +8945,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>854</v>
       </c>
@@ -9020,7 +8968,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>855</v>
       </c>
@@ -9043,7 +8991,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>875</v>
       </c>
@@ -9066,7 +9014,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>876</v>
       </c>
@@ -9089,7 +9037,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>939</v>
       </c>
@@ -9112,7 +9060,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>945</v>
       </c>
@@ -9135,7 +9083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>631</v>
       </c>
@@ -9158,7 +9106,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>699</v>
       </c>
@@ -9181,7 +9129,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>700</v>
       </c>
@@ -9204,7 +9152,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>716</v>
       </c>
@@ -9227,7 +9175,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>727</v>
       </c>
@@ -9250,7 +9198,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>734</v>
       </c>
@@ -9273,7 +9221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>737</v>
       </c>
@@ -9296,7 +9244,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>751</v>
       </c>
@@ -9319,7 +9267,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>761</v>
       </c>
@@ -9342,7 +9290,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>767</v>
       </c>
@@ -9365,7 +9313,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>773</v>
       </c>
@@ -9388,7 +9336,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>774</v>
       </c>
@@ -9411,7 +9359,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>794</v>
       </c>
@@ -9434,7 +9382,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>799</v>
       </c>
@@ -9457,7 +9405,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>805</v>
       </c>
@@ -9480,7 +9428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>817</v>
       </c>
@@ -9503,7 +9451,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>825</v>
       </c>
@@ -9526,7 +9474,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>828</v>
       </c>
@@ -9549,7 +9497,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>837</v>
       </c>
@@ -9572,7 +9520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>842</v>
       </c>
@@ -9595,7 +9543,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>852</v>
       </c>
@@ -9618,7 +9566,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>859</v>
       </c>
@@ -9641,7 +9589,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>860</v>
       </c>
@@ -9664,7 +9612,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>883</v>
       </c>
@@ -9687,7 +9635,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>886</v>
       </c>
@@ -9710,7 +9658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>894</v>
       </c>
@@ -9733,7 +9681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>936</v>
       </c>
@@ -9756,7 +9704,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>946</v>
       </c>
@@ -9779,7 +9727,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>958</v>
       </c>
@@ -9802,7 +9750,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>694</v>
       </c>
@@ -9825,7 +9773,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>704</v>
       </c>
@@ -9848,7 +9796,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>739</v>
       </c>
@@ -9871,7 +9819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>785</v>
       </c>
@@ -9894,7 +9842,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>813</v>
       </c>
@@ -9917,7 +9865,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>815</v>
       </c>
@@ -9940,7 +9888,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>831</v>
       </c>
@@ -9963,7 +9911,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>832</v>
       </c>
@@ -9986,7 +9934,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>854</v>
       </c>
@@ -10009,7 +9957,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>855</v>
       </c>
@@ -10032,7 +9980,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>875</v>
       </c>
@@ -10055,7 +10003,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>876</v>
       </c>
@@ -10078,7 +10026,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>939</v>
       </c>
@@ -10101,7 +10049,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>945</v>
       </c>
@@ -10124,7 +10072,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>631</v>
       </c>
@@ -10147,7 +10095,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>699</v>
       </c>
@@ -10170,7 +10118,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>700</v>
       </c>
@@ -10193,7 +10141,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>716</v>
       </c>
@@ -10216,7 +10164,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>727</v>
       </c>
@@ -10239,7 +10187,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>734</v>
       </c>
@@ -10262,7 +10210,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>737</v>
       </c>
@@ -10285,7 +10233,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>751</v>
       </c>
@@ -10308,7 +10256,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>760</v>
       </c>
@@ -10331,7 +10279,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>761</v>
       </c>
@@ -10354,7 +10302,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>767</v>
       </c>
@@ -10377,7 +10325,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>773</v>
       </c>
@@ -10400,7 +10348,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>774</v>
       </c>
@@ -10423,7 +10371,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>794</v>
       </c>
@@ -10446,7 +10394,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>799</v>
       </c>
@@ -10469,7 +10417,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>805</v>
       </c>
@@ -10492,7 +10440,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>825</v>
       </c>
@@ -10515,7 +10463,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>828</v>
       </c>
@@ -10538,7 +10486,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>837</v>
       </c>
@@ -10561,7 +10509,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>842</v>
       </c>
@@ -10584,7 +10532,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>852</v>
       </c>
@@ -10607,7 +10555,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>859</v>
       </c>
@@ -10630,7 +10578,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>860</v>
       </c>
@@ -10653,7 +10601,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>883</v>
       </c>
@@ -10676,7 +10624,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>886</v>
       </c>
@@ -10699,7 +10647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>894</v>
       </c>
@@ -10722,7 +10670,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>936</v>
       </c>
@@ -10745,7 +10693,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>946</v>
       </c>
@@ -10768,7 +10716,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>958</v>
       </c>
@@ -10791,7 +10739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>643</v>
       </c>
@@ -10814,7 +10762,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>694</v>
       </c>
@@ -10837,7 +10785,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>704</v>
       </c>
@@ -10860,7 +10808,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>715</v>
       </c>
@@ -10883,7 +10831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>733</v>
       </c>
@@ -10906,7 +10854,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>739</v>
       </c>
@@ -10929,7 +10877,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>748</v>
       </c>
@@ -10952,7 +10900,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>756</v>
       </c>
@@ -10975,7 +10923,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>757</v>
       </c>
@@ -10998,7 +10946,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>772</v>
       </c>
@@ -11021,7 +10969,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>780</v>
       </c>
@@ -11044,7 +10992,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>785</v>
       </c>
@@ -11067,7 +11015,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>789</v>
       </c>
@@ -11090,7 +11038,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>801</v>
       </c>
@@ -11113,7 +11061,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>813</v>
       </c>
@@ -11136,7 +11084,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>815</v>
       </c>
@@ -11159,7 +11107,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>831</v>
       </c>
@@ -11182,7 +11130,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>832</v>
       </c>
@@ -11205,7 +11153,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>833</v>
       </c>
@@ -11228,7 +11176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>854</v>
       </c>
@@ -11251,7 +11199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>855</v>
       </c>
@@ -11274,7 +11222,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>875</v>
       </c>
@@ -11297,7 +11245,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>876</v>
       </c>
@@ -11320,7 +11268,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>900</v>
       </c>
@@ -11343,7 +11291,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>939</v>
       </c>
@@ -11366,7 +11314,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>945</v>
       </c>
@@ -11389,7 +11337,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>638</v>
       </c>
@@ -11412,7 +11360,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>696</v>
       </c>
@@ -11435,7 +11383,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>706</v>
       </c>
@@ -11458,7 +11406,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>708</v>
       </c>
@@ -11481,7 +11429,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>709</v>
       </c>
@@ -11504,7 +11452,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>712</v>
       </c>
@@ -11527,7 +11475,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>732</v>
       </c>
@@ -11550,7 +11498,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>736</v>
       </c>
@@ -11573,7 +11521,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>749</v>
       </c>
@@ -11596,7 +11544,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>750</v>
       </c>
@@ -11619,7 +11567,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>764</v>
       </c>
@@ -11642,7 +11590,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>769</v>
       </c>
@@ -11665,7 +11613,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>784</v>
       </c>
@@ -11688,7 +11636,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>788</v>
       </c>
@@ -11711,7 +11659,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>791</v>
       </c>
@@ -11734,7 +11682,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>792</v>
       </c>
@@ -11757,7 +11705,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>806</v>
       </c>
@@ -11780,7 +11728,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>816</v>
       </c>
@@ -11803,7 +11751,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>829</v>
       </c>
@@ -11826,7 +11774,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>841</v>
       </c>
@@ -11849,7 +11797,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>850</v>
       </c>
@@ -11872,7 +11820,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>857</v>
       </c>
@@ -11895,7 +11843,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>858</v>
       </c>
@@ -11918,7 +11866,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>868</v>
       </c>
@@ -11941,7 +11889,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>889</v>
       </c>
@@ -11964,7 +11912,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>895</v>
       </c>
@@ -11987,7 +11935,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>938</v>
       </c>
@@ -12010,7 +11958,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>948</v>
       </c>
@@ -12033,7 +11981,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>949</v>
       </c>
@@ -12056,7 +12004,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>631</v>
       </c>
@@ -12079,7 +12027,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>699</v>
       </c>
@@ -12102,7 +12050,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>700</v>
       </c>
@@ -12125,7 +12073,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>761</v>
       </c>
@@ -12148,7 +12096,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>767</v>
       </c>
@@ -12171,7 +12119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>828</v>
       </c>
@@ -12194,7 +12142,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>837</v>
       </c>
@@ -12217,7 +12165,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>842</v>
       </c>
@@ -12240,7 +12188,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>852</v>
       </c>
@@ -12263,7 +12211,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>859</v>
       </c>
@@ -12286,7 +12234,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>860</v>
       </c>
@@ -12309,7 +12257,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>886</v>
       </c>
@@ -12332,7 +12280,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>936</v>
       </c>
@@ -12355,7 +12303,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>946</v>
       </c>
@@ -12378,7 +12326,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>958</v>
       </c>
@@ -12401,7 +12349,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>708</v>
       </c>
@@ -12424,7 +12372,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>712</v>
       </c>
@@ -12447,7 +12395,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>750</v>
       </c>
@@ -12470,7 +12418,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>784</v>
       </c>
@@ -12493,7 +12441,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>792</v>
       </c>
@@ -12516,7 +12464,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>829</v>
       </c>
@@ -12539,7 +12487,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>841</v>
       </c>
@@ -12562,7 +12510,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>857</v>
       </c>
@@ -12585,7 +12533,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>938</v>
       </c>
@@ -12608,7 +12556,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>949</v>
       </c>
@@ -12631,7 +12579,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>653</v>
       </c>
@@ -12654,7 +12602,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>703</v>
       </c>
@@ -12677,7 +12625,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>730</v>
       </c>
@@ -12700,7 +12648,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>735</v>
       </c>
@@ -12723,7 +12671,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>744</v>
       </c>
@@ -12746,7 +12694,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>759</v>
       </c>
@@ -12769,7 +12717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>762</v>
       </c>
@@ -12792,7 +12740,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>803</v>
       </c>
@@ -12815,7 +12763,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>830</v>
       </c>
@@ -12838,7 +12786,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>834</v>
       </c>
@@ -12861,7 +12809,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>853</v>
       </c>
@@ -12884,7 +12832,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>880</v>
       </c>
@@ -12907,7 +12855,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>888</v>
       </c>
@@ -12930,7 +12878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>941</v>
       </c>
@@ -12953,7 +12901,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>942</v>
       </c>
@@ -12976,7 +12924,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>653</v>
       </c>
@@ -12999,7 +12947,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>707</v>
       </c>
@@ -13022,7 +12970,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>717</v>
       </c>
@@ -13045,7 +12993,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>730</v>
       </c>
@@ -13068,7 +13016,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>735</v>
       </c>
@@ -13091,7 +13039,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>740</v>
       </c>
@@ -13114,7 +13062,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>744</v>
       </c>
@@ -13137,7 +13085,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>759</v>
       </c>
@@ -13160,7 +13108,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>762</v>
       </c>
@@ -13183,7 +13131,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>768</v>
       </c>
@@ -13206,7 +13154,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>782</v>
       </c>
@@ -13229,7 +13177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>787</v>
       </c>
@@ -13252,7 +13200,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>793</v>
       </c>
@@ -13275,7 +13223,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>803</v>
       </c>
@@ -13298,7 +13246,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>804</v>
       </c>
@@ -13321,7 +13269,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>821</v>
       </c>
@@ -13344,7 +13292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>830</v>
       </c>
@@ -13367,7 +13315,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>834</v>
       </c>
@@ -13390,7 +13338,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>851</v>
       </c>
@@ -13413,7 +13361,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>853</v>
       </c>
@@ -13436,7 +13384,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>867</v>
       </c>
@@ -13459,7 +13407,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>880</v>
       </c>
@@ -13479,10 +13427,10 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>888</v>
       </c>
@@ -13502,10 +13450,10 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>898</v>
       </c>
@@ -13525,10 +13473,10 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>942</v>
       </c>
@@ -13548,10 +13496,10 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>631</v>
       </c>
@@ -13571,10 +13519,10 @@
         <v>0</v>
       </c>
       <c r="H484" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>699</v>
       </c>
@@ -13594,10 +13542,10 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>700</v>
       </c>
@@ -13617,10 +13565,10 @@
         <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>727</v>
       </c>
@@ -13640,10 +13588,10 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>760</v>
       </c>
@@ -13663,10 +13611,10 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>761</v>
       </c>
@@ -13686,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="H489" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>767</v>
       </c>
@@ -13709,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>828</v>
       </c>
@@ -13732,10 +13680,10 @@
         <v>0</v>
       </c>
       <c r="H491" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>837</v>
       </c>
@@ -13755,10 +13703,10 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>842</v>
       </c>
@@ -13778,10 +13726,10 @@
         <v>0</v>
       </c>
       <c r="H493" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>852</v>
       </c>
@@ -13801,10 +13749,10 @@
         <v>1</v>
       </c>
       <c r="H494" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>859</v>
       </c>
@@ -13824,10 +13772,10 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>860</v>
       </c>
@@ -13847,10 +13795,10 @@
         <v>0</v>
       </c>
       <c r="H496" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>886</v>
       </c>
@@ -13870,10 +13818,10 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>936</v>
       </c>
@@ -13893,10 +13841,10 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>946</v>
       </c>
@@ -13916,10 +13864,10 @@
         <v>1</v>
       </c>
       <c r="H499" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>958</v>
       </c>
@@ -13939,10 +13887,10 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>638</v>
       </c>
@@ -13962,10 +13910,10 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>696</v>
       </c>
@@ -13985,10 +13933,10 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>706</v>
       </c>
@@ -14008,10 +13956,10 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>708</v>
       </c>
@@ -14031,10 +13979,10 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>709</v>
       </c>
@@ -14054,10 +14002,10 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>712</v>
       </c>
@@ -14077,10 +14025,10 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>732</v>
       </c>
@@ -14100,10 +14048,10 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>736</v>
       </c>
@@ -14123,10 +14071,10 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>749</v>
       </c>
@@ -14146,10 +14094,10 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>750</v>
       </c>
@@ -14169,10 +14117,10 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>764</v>
       </c>
@@ -14192,10 +14140,10 @@
         <v>0</v>
       </c>
       <c r="H511" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>769</v>
       </c>
@@ -14215,10 +14163,10 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>784</v>
       </c>
@@ -14238,10 +14186,10 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>788</v>
       </c>
@@ -14261,10 +14209,10 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>791</v>
       </c>
@@ -14284,10 +14232,10 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>792</v>
       </c>
@@ -14307,10 +14255,10 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>806</v>
       </c>
@@ -14330,10 +14278,10 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>816</v>
       </c>
@@ -14353,10 +14301,10 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>829</v>
       </c>
@@ -14376,10 +14324,10 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>841</v>
       </c>
@@ -14399,10 +14347,10 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>850</v>
       </c>
@@ -14422,10 +14370,10 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>857</v>
       </c>
@@ -14445,10 +14393,10 @@
         <v>0</v>
       </c>
       <c r="H522" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>858</v>
       </c>
@@ -14468,10 +14416,10 @@
         <v>0</v>
       </c>
       <c r="H523" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>868</v>
       </c>
@@ -14491,10 +14439,10 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>877</v>
       </c>
@@ -14514,10 +14462,10 @@
         <v>0</v>
       </c>
       <c r="H525" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>889</v>
       </c>
@@ -14537,10 +14485,10 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>895</v>
       </c>
@@ -14560,10 +14508,10 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>938</v>
       </c>
@@ -14583,10 +14531,10 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>948</v>
       </c>
@@ -14606,10 +14554,10 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>949</v>
       </c>
@@ -14629,10 +14577,10 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>653</v>
       </c>
@@ -14652,10 +14600,10 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>703</v>
       </c>
@@ -14675,10 +14623,10 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>707</v>
       </c>
@@ -14698,10 +14646,10 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>717</v>
       </c>
@@ -14721,10 +14669,10 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>730</v>
       </c>
@@ -14744,10 +14692,10 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>735</v>
       </c>
@@ -14767,10 +14715,10 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>740</v>
       </c>
@@ -14790,10 +14738,10 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>744</v>
       </c>
@@ -14813,10 +14761,10 @@
         <v>1</v>
       </c>
       <c r="H538" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>759</v>
       </c>
@@ -14836,10 +14784,10 @@
         <v>1</v>
       </c>
       <c r="H539" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>762</v>
       </c>
@@ -14859,10 +14807,10 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>768</v>
       </c>
@@ -14882,10 +14830,10 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>782</v>
       </c>
@@ -14905,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>787</v>
       </c>
@@ -14928,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>793</v>
       </c>
@@ -14951,10 +14899,10 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>803</v>
       </c>
@@ -14974,10 +14922,10 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>804</v>
       </c>
@@ -14997,10 +14945,10 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>821</v>
       </c>
@@ -15020,10 +14968,10 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>830</v>
       </c>
@@ -15043,10 +14991,10 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>834</v>
       </c>
@@ -15066,10 +15014,10 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>851</v>
       </c>
@@ -15089,10 +15037,10 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>853</v>
       </c>
@@ -15112,10 +15060,10 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>867</v>
       </c>
@@ -15135,10 +15083,10 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>880</v>
       </c>
@@ -15158,10 +15106,10 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>888</v>
       </c>
@@ -15181,10 +15129,10 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>898</v>
       </c>
@@ -15204,10 +15152,10 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>941</v>
       </c>
@@ -15227,10 +15175,10 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>942</v>
       </c>
@@ -15250,10 +15198,10 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>631</v>
       </c>
@@ -15273,10 +15221,10 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>699</v>
       </c>
@@ -15296,10 +15244,10 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>700</v>
       </c>
@@ -15319,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>716</v>
       </c>
@@ -15342,10 +15290,10 @@
         <v>1</v>
       </c>
       <c r="H561" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>727</v>
       </c>
@@ -15365,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>734</v>
       </c>
@@ -15388,10 +15336,10 @@
         <v>1</v>
       </c>
       <c r="H563" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>737</v>
       </c>
@@ -15411,10 +15359,10 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>751</v>
       </c>
@@ -15434,10 +15382,10 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>761</v>
       </c>
@@ -15457,10 +15405,10 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>773</v>
       </c>
@@ -15480,10 +15428,10 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>774</v>
       </c>
@@ -15503,10 +15451,10 @@
         <v>0</v>
       </c>
       <c r="H568" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>794</v>
       </c>
@@ -15526,10 +15474,10 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>799</v>
       </c>
@@ -15549,10 +15497,10 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>805</v>
       </c>
@@ -15572,10 +15520,10 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>817</v>
       </c>
@@ -15595,10 +15543,10 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>825</v>
       </c>
@@ -15618,10 +15566,10 @@
         <v>1</v>
       </c>
       <c r="H573" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>828</v>
       </c>
@@ -15641,10 +15589,10 @@
         <v>1</v>
       </c>
       <c r="H574" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>837</v>
       </c>
@@ -15664,10 +15612,10 @@
         <v>1</v>
       </c>
       <c r="H575" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>842</v>
       </c>
@@ -15687,10 +15635,10 @@
         <v>0</v>
       </c>
       <c r="H576" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>852</v>
       </c>
@@ -15710,10 +15658,10 @@
         <v>1</v>
       </c>
       <c r="H577" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>859</v>
       </c>
@@ -15733,10 +15681,10 @@
         <v>1</v>
       </c>
       <c r="H578" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>860</v>
       </c>
@@ -15756,10 +15704,10 @@
         <v>1</v>
       </c>
       <c r="H579" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>883</v>
       </c>
@@ -15779,10 +15727,10 @@
         <v>0</v>
       </c>
       <c r="H580" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>886</v>
       </c>
@@ -15802,10 +15750,10 @@
         <v>1</v>
       </c>
       <c r="H581" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>894</v>
       </c>
@@ -15825,10 +15773,10 @@
         <v>1</v>
       </c>
       <c r="H582" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>936</v>
       </c>
@@ -15848,10 +15796,10 @@
         <v>1</v>
       </c>
       <c r="H583" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>946</v>
       </c>
@@ -15871,10 +15819,10 @@
         <v>1</v>
       </c>
       <c r="H584" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>958</v>
       </c>
@@ -15894,10 +15842,10 @@
         <v>1</v>
       </c>
       <c r="H585" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>694</v>
       </c>
@@ -15917,10 +15865,10 @@
         <v>0</v>
       </c>
       <c r="H586" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>704</v>
       </c>
@@ -15940,10 +15888,10 @@
         <v>1</v>
       </c>
       <c r="H587" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>739</v>
       </c>
@@ -15963,10 +15911,10 @@
         <v>1</v>
       </c>
       <c r="H588" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>757</v>
       </c>
@@ -15986,10 +15934,10 @@
         <v>1</v>
       </c>
       <c r="H589" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>785</v>
       </c>
@@ -16009,10 +15957,10 @@
         <v>0</v>
       </c>
       <c r="H590" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>813</v>
       </c>
@@ -16032,10 +15980,10 @@
         <v>1</v>
       </c>
       <c r="H591" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>815</v>
       </c>
@@ -16055,10 +16003,10 @@
         <v>1</v>
       </c>
       <c r="H592" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>832</v>
       </c>
@@ -16078,10 +16026,10 @@
         <v>1</v>
       </c>
       <c r="H593" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>854</v>
       </c>
@@ -16101,10 +16049,10 @@
         <v>1</v>
       </c>
       <c r="H594" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>855</v>
       </c>
@@ -16124,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="H595" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>875</v>
       </c>
@@ -16147,10 +16095,10 @@
         <v>1</v>
       </c>
       <c r="H596" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>876</v>
       </c>
@@ -16170,10 +16118,10 @@
         <v>1</v>
       </c>
       <c r="H597" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>939</v>
       </c>
@@ -16193,10 +16141,10 @@
         <v>1</v>
       </c>
       <c r="H598" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>945</v>
       </c>
@@ -16216,10 +16164,10 @@
         <v>1</v>
       </c>
       <c r="H599" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>653</v>
       </c>
@@ -16239,10 +16187,10 @@
         <v>1</v>
       </c>
       <c r="H600" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>703</v>
       </c>
@@ -16262,10 +16210,10 @@
         <v>0</v>
       </c>
       <c r="H601" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>730</v>
       </c>
@@ -16285,10 +16233,10 @@
         <v>0</v>
       </c>
       <c r="H602" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
       <c r="A603">
         <v>735</v>
       </c>
@@ -16308,10 +16256,10 @@
         <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
       <c r="A604">
         <v>744</v>
       </c>
@@ -16331,10 +16279,10 @@
         <v>0</v>
       </c>
       <c r="H604" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
       <c r="A605">
         <v>759</v>
       </c>
@@ -16354,10 +16302,10 @@
         <v>0</v>
       </c>
       <c r="H605" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
       <c r="A606">
         <v>762</v>
       </c>
@@ -16377,10 +16325,10 @@
         <v>0</v>
       </c>
       <c r="H606" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
       <c r="A607">
         <v>803</v>
       </c>
@@ -16400,10 +16348,10 @@
         <v>0</v>
       </c>
       <c r="H607" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
       <c r="A608">
         <v>830</v>
       </c>
@@ -16423,10 +16371,10 @@
         <v>0</v>
       </c>
       <c r="H608" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
       <c r="A609">
         <v>834</v>
       </c>
@@ -16446,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="H609" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
       <c r="A610">
         <v>853</v>
       </c>
@@ -16469,10 +16417,10 @@
         <v>1</v>
       </c>
       <c r="H610" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
       <c r="A611">
         <v>888</v>
       </c>
@@ -16492,10 +16440,10 @@
         <v>0</v>
       </c>
       <c r="H611" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
       <c r="A612">
         <v>941</v>
       </c>
@@ -16515,10 +16463,10 @@
         <v>0</v>
       </c>
       <c r="H612" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
       <c r="A613">
         <v>942</v>
       </c>
@@ -16538,10 +16486,10 @@
         <v>1</v>
       </c>
       <c r="H613" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
       <c r="A614">
         <v>638</v>
       </c>
@@ -16561,10 +16509,10 @@
         <v>1</v>
       </c>
       <c r="H614" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
       <c r="A615">
         <v>708</v>
       </c>
@@ -16584,10 +16532,10 @@
         <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
       <c r="A616">
         <v>709</v>
       </c>
@@ -16607,10 +16555,10 @@
         <v>0</v>
       </c>
       <c r="H616" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
       <c r="A617">
         <v>712</v>
       </c>
@@ -16630,10 +16578,10 @@
         <v>0</v>
       </c>
       <c r="H617" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
       <c r="A618">
         <v>750</v>
       </c>
@@ -16653,10 +16601,10 @@
         <v>0</v>
       </c>
       <c r="H618" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
       <c r="A619">
         <v>784</v>
       </c>
@@ -16676,10 +16624,10 @@
         <v>1</v>
       </c>
       <c r="H619" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
       <c r="A620">
         <v>792</v>
       </c>
@@ -16699,10 +16647,10 @@
         <v>1</v>
       </c>
       <c r="H620" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
       <c r="A621">
         <v>829</v>
       </c>
@@ -16722,10 +16670,10 @@
         <v>0</v>
       </c>
       <c r="H621" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
       <c r="A622">
         <v>841</v>
       </c>
@@ -16745,10 +16693,10 @@
         <v>1</v>
       </c>
       <c r="H622" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
       <c r="A623">
         <v>857</v>
       </c>
@@ -16768,10 +16716,10 @@
         <v>0</v>
       </c>
       <c r="H623" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
       <c r="A624">
         <v>938</v>
       </c>
@@ -16791,10 +16739,10 @@
         <v>0</v>
       </c>
       <c r="H624" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
       <c r="A625">
         <v>949</v>
       </c>
@@ -16814,10 +16762,10 @@
         <v>1</v>
       </c>
       <c r="H625" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
       <c r="A626">
         <v>643</v>
       </c>
@@ -16837,10 +16785,10 @@
         <v>1</v>
       </c>
       <c r="H626" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
       <c r="A627">
         <v>694</v>
       </c>
@@ -16860,10 +16808,10 @@
         <v>0</v>
       </c>
       <c r="H627" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
       <c r="A628">
         <v>704</v>
       </c>
@@ -16883,10 +16831,10 @@
         <v>1</v>
       </c>
       <c r="H628" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
       <c r="A629">
         <v>715</v>
       </c>
@@ -16906,10 +16854,10 @@
         <v>1</v>
       </c>
       <c r="H629" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
       <c r="A630">
         <v>733</v>
       </c>
@@ -16929,10 +16877,10 @@
         <v>1</v>
       </c>
       <c r="H630" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
       <c r="A631">
         <v>739</v>
       </c>
@@ -16952,10 +16900,10 @@
         <v>1</v>
       </c>
       <c r="H631" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
       <c r="A632">
         <v>748</v>
       </c>
@@ -16975,10 +16923,10 @@
         <v>1</v>
       </c>
       <c r="H632" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
       <c r="A633">
         <v>756</v>
       </c>
@@ -16998,10 +16946,10 @@
         <v>1</v>
       </c>
       <c r="H633" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
       <c r="A634">
         <v>757</v>
       </c>
@@ -17021,10 +16969,10 @@
         <v>1</v>
       </c>
       <c r="H634" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
       <c r="A635">
         <v>780</v>
       </c>
@@ -17044,10 +16992,10 @@
         <v>1</v>
       </c>
       <c r="H635" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
       <c r="A636">
         <v>785</v>
       </c>
@@ -17067,10 +17015,10 @@
         <v>1</v>
       </c>
       <c r="H636" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
       <c r="A637">
         <v>789</v>
       </c>
@@ -17090,10 +17038,10 @@
         <v>0</v>
       </c>
       <c r="H637" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
       <c r="A638">
         <v>801</v>
       </c>
@@ -17113,10 +17061,10 @@
         <v>1</v>
       </c>
       <c r="H638" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
       <c r="A639">
         <v>813</v>
       </c>
@@ -17136,10 +17084,10 @@
         <v>1</v>
       </c>
       <c r="H639" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
       <c r="A640">
         <v>815</v>
       </c>
@@ -17159,10 +17107,10 @@
         <v>1</v>
       </c>
       <c r="H640" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
       <c r="A641">
         <v>831</v>
       </c>
@@ -17182,10 +17130,10 @@
         <v>1</v>
       </c>
       <c r="H641" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
       <c r="A642">
         <v>832</v>
       </c>
@@ -17205,10 +17153,10 @@
         <v>1</v>
       </c>
       <c r="H642" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
       <c r="A643">
         <v>833</v>
       </c>
@@ -17228,10 +17176,10 @@
         <v>1</v>
       </c>
       <c r="H643" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
       <c r="A644">
         <v>854</v>
       </c>
@@ -17251,10 +17199,10 @@
         <v>1</v>
       </c>
       <c r="H644" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
       <c r="A645">
         <v>855</v>
       </c>
@@ -17274,10 +17222,10 @@
         <v>1</v>
       </c>
       <c r="H645" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
       <c r="A646">
         <v>875</v>
       </c>
@@ -17297,10 +17245,10 @@
         <v>1</v>
       </c>
       <c r="H646" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
       <c r="A647">
         <v>876</v>
       </c>
@@ -17320,10 +17268,10 @@
         <v>1</v>
       </c>
       <c r="H647" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
       <c r="A648">
         <v>890</v>
       </c>
@@ -17343,10 +17291,10 @@
         <v>0</v>
       </c>
       <c r="H648" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
       <c r="A649">
         <v>900</v>
       </c>
@@ -17366,10 +17314,10 @@
         <v>1</v>
       </c>
       <c r="H649" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
       <c r="A650">
         <v>939</v>
       </c>
@@ -17389,10 +17337,10 @@
         <v>1</v>
       </c>
       <c r="H650" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
       <c r="A651">
         <v>945</v>
       </c>
@@ -17412,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="H651" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
